--- a/SwagLabs_TestCases_Template.xlsx
+++ b/SwagLabs_TestCases_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTsonkova\MyFiles\Projects\SwagLabs-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1806E305-C3F8-44CD-B6BF-CE910AB31F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB44C6-5871-42B8-9308-CD4E0D31C248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>Test Steps</t>
   </si>
@@ -306,6 +306,173 @@
   </si>
   <si>
     <t>SW027</t>
+  </si>
+  <si>
+    <t>Filter products by Price Ascending</t>
+  </si>
+  <si>
+    <t>Filter products by Price (low to high)</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on the filter and select Price (low to high).</t>
+  </si>
+  <si>
+    <t>Products filtered by price ascending.</t>
+  </si>
+  <si>
+    <t>Filter products by Price Descending</t>
+  </si>
+  <si>
+    <t>Filter products by Price (high to low)</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on the filter and select Price (high to low).</t>
+  </si>
+  <si>
+    <t>Products filtered by price descending.</t>
+  </si>
+  <si>
+    <t>Filter products by name alphabetically</t>
+  </si>
+  <si>
+    <t>Filter products by Name (A to Z)</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on the filter and select Name (A to Z).</t>
+  </si>
+  <si>
+    <t>Products filtered by name alphabetically.</t>
+  </si>
+  <si>
+    <t>Filter products by name reversed alphabetically</t>
+  </si>
+  <si>
+    <t>Filter products by Name (Z to A)</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on the filter and select Name (Z to A).</t>
+  </si>
+  <si>
+    <t>Products filtered by name reversed alphabetically.</t>
+  </si>
+  <si>
+    <t>SW007, SW008, SW009, SW010</t>
+  </si>
+  <si>
+    <t>Badge icon over the shopping cart when product is added in previously empty cart.</t>
+  </si>
+  <si>
+    <t>Badge icon over the shopping cart when adding more products.</t>
+  </si>
+  <si>
+    <t>Badge icon over the shopping cart when removing a product.</t>
+  </si>
+  <si>
+    <t>Badge icon over the shopping cart when removig all products and the cart is empty.</t>
+  </si>
+  <si>
+    <t>Add product to the Shopping Cart from products page.</t>
+  </si>
+  <si>
+    <t>Add product to the shopping cart from the Product Details page.</t>
+  </si>
+  <si>
+    <t>Remove Product from Products page.</t>
+  </si>
+  <si>
+    <t>Remove product from Product Details Page.</t>
+  </si>
+  <si>
+    <t>SW028</t>
+  </si>
+  <si>
+    <t>SW029</t>
+  </si>
+  <si>
+    <t>SW030</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on Add to cart button next to any product.</t>
+  </si>
+  <si>
+    <t>Add to cart button changes to Remove.</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on a product name and navigate to Product Details Page.
+3. Click on Add to cart button.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>user logged in with valid credentials</t>
+  </si>
+  <si>
+    <t>Products added in the shopping cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products added in the shopping cart;
+</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on Remove button next to any product.</t>
+  </si>
+  <si>
+    <t>Remove button changes to Add to cart.</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Locate a product with a Remove button next to it.
+3. Click on the product's name and navigate to the Product Details page.
+2. Click on Remove button.</t>
+  </si>
+  <si>
+    <t>user logged in with valid credentials;
+empty shopping cart</t>
+  </si>
+  <si>
+    <t>Add products to an empty shopping cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Reach products page.
+2. Click on Add to cart button.
+</t>
+  </si>
+  <si>
+    <t>A badge appears above the shopping cart with a counter of 1.</t>
+  </si>
+  <si>
+    <t>The badge counter increases by 1 for each added product.</t>
+  </si>
+  <si>
+    <t>Add more products to the shopping cart.</t>
+  </si>
+  <si>
+    <t>Remove products from the shopping cart</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on Remove button next to a product.</t>
+  </si>
+  <si>
+    <t>The badge counter decreases by 1 for each removed product.</t>
+  </si>
+  <si>
+    <t>Remove all products from the shopping cart.</t>
+  </si>
+  <si>
+    <t>1. Reach products page.
+2. Click on all Remove buttons.</t>
+  </si>
+  <si>
+    <t>The badge counter decreases by 1 for each removed product and disappears when there are no more products in the cart.</t>
   </si>
 </sst>
 </file>
@@ -644,24 +811,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2000CD33-61D4-4DF7-A171-BA08DDF392FC}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="29.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.453125" customWidth="1"/>
-    <col min="5" max="5" width="39.6328125" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" customWidth="1"/>
-    <col min="9" max="9" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" customWidth="1"/>
+    <col min="6" max="6" width="39.6328125" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" customWidth="1"/>
+    <col min="8" max="8" width="26.08984375" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" customWidth="1"/>
+    <col min="10" max="10" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -669,158 +837,161 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -828,362 +999,661 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
       <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
       <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
       <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H98" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H98" xr:uid="{6F73A691-8541-4749-9BB3-FEB9327913D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I101" xr:uid="{6F73A691-8541-4749-9BB3-FEB9327913D1}">
       <formula1>"Pass, Fail, N/A, Blockd"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1197,7 +1667,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1250,6 +1720,9 @@
       <c r="A6" t="s">
         <v>45</v>
       </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">

--- a/SwagLabs_TestCases_Template.xlsx
+++ b/SwagLabs_TestCases_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTsonkova\MyFiles\Projects\SwagLabs-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB44C6-5871-42B8-9308-CD4E0D31C248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20736A0-04AF-4371-91A4-797541E3AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="148">
   <si>
     <t>Test Steps</t>
   </si>
@@ -473,6 +473,55 @@
   </si>
   <si>
     <t>The badge counter decreases by 1 for each removed product and disappears when there are no more products in the cart.</t>
+  </si>
+  <si>
+    <t>SW012, SW015, SW016</t>
+  </si>
+  <si>
+    <t>SW013, SW014, SW017, SW018</t>
+  </si>
+  <si>
+    <t>Enter the shopping cart</t>
+  </si>
+  <si>
+    <t>1. Click on the shopping cart icon on the upper right corner of the website.
+2. Inspect the shopping cart content and layout.</t>
+  </si>
+  <si>
+    <t>Enter the shopping cart and check its layout and contents.</t>
+  </si>
+  <si>
+    <t>Shopping cart shows:
+-&gt; product qty, product name. product description, product price, Remove button;
+-&gt; shopping cart has Continue shopping button;
+-&gt; shopping cart has Checkout button.</t>
+  </si>
+  <si>
+    <t>Remove a product from within the shopping cart</t>
+  </si>
+  <si>
+    <t>Enter the shopping cart and remove any product.</t>
+  </si>
+  <si>
+    <t>1. Click on the shopping cart icon on the upper right corner of the website.
+2.Click on the Rmove button next to any product.</t>
+  </si>
+  <si>
+    <t>Product removed from the shopping cart.
+Cart's badge counter decreased by 1.
+If cart is empty the cat's badge disappears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is in shopping cart </t>
+  </si>
+  <si>
+    <t>Click Continue Shopping button on the shopping cart page</t>
+  </si>
+  <si>
+    <t>1. In the shopping cart page click on the Continue Shopping button.</t>
+  </si>
+  <si>
+    <t>User redirected to Products page.</t>
   </si>
 </sst>
 </file>
@@ -813,15 +862,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2000CD33-61D4-4DF7-A171-BA08DDF392FC}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.6328125" customWidth="1"/>
     <col min="7" max="7" width="26.6328125" customWidth="1"/>
     <col min="8" max="8" width="26.08984375" customWidth="1"/>
@@ -842,7 +891,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -1368,23 +1417,92 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
       <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
       <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -1666,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B510231E-BF2B-4144-A3DB-453E099D7522}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1728,30 +1846,48 @@
       <c r="A7" t="s">
         <v>46</v>
       </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">

--- a/SwagLabs_TestCases_Template.xlsx
+++ b/SwagLabs_TestCases_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTsonkova\MyFiles\Projects\SwagLabs-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20736A0-04AF-4371-91A4-797541E3AF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A7D6C5-FAF6-4D65-93E8-8F01E77E1927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="219">
   <si>
     <t>Test Steps</t>
   </si>
@@ -522,6 +522,276 @@
   </si>
   <si>
     <t>User redirected to Products page.</t>
+  </si>
+  <si>
+    <t>Inspect Customer information section from the Checkout Overview Process</t>
+  </si>
+  <si>
+    <t>1. In the shopping cart page click on theCheckout button.</t>
+  </si>
+  <si>
+    <t>User redirected to Checkout: User Information.
+The page has: 
+-&gt; First Name field
+-&gt; Last Name field
+-&gt; Zip/Postal code field
+-&gt; Cancel button
+-&gt; Continue button</t>
+  </si>
+  <si>
+    <t>Checkout Customer information</t>
+  </si>
+  <si>
+    <t>Checkout with empty First Name</t>
+  </si>
+  <si>
+    <t>Checkout with empty Last Name</t>
+  </si>
+  <si>
+    <t>Checkout with empty Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>Try to checkout with empty First Name</t>
+  </si>
+  <si>
+    <t>Try to checkout with empty Last Name</t>
+  </si>
+  <si>
+    <t>Try to checkout with empty Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>Warning message "Error: First Name is required" appears.</t>
+  </si>
+  <si>
+    <t>SW031</t>
+  </si>
+  <si>
+    <t>Warning message "Error: Last Name is required" appears.</t>
+  </si>
+  <si>
+    <t>Warning message "Error: Postal Code is required" appears.</t>
+  </si>
+  <si>
+    <t>Checkout with valid data in all required fields</t>
+  </si>
+  <si>
+    <t>Enter valid data in all required fields and checkout</t>
+  </si>
+  <si>
+    <t>1. Leave First Name field empty.
+2. Enter valid data in Last Name field.
+3. Enter valid data in the Zip/Postal Code field.
+4. Press Continue button.</t>
+  </si>
+  <si>
+    <t>1. Enter valid data in First Name field.
+2. Leave Last Name field empty.
+3. Enter valid data in the Zip/Postal Code field.
+4. Press Continue button.</t>
+  </si>
+  <si>
+    <t>1. Enter valid data in First Name field.
+2. Enter valid data in Last Name field.
+3. Leave Zip/Postal Code field empty.
+4. PressContinue button.</t>
+  </si>
+  <si>
+    <t>1.Enter vaid data in First Name field.
+2. Enter valid data in Last Name field.
+3. Enter valid data in the Zip/Postal Code field.
+4. Press Continue button.</t>
+  </si>
+  <si>
+    <t>User redirected to Checout: Overview.</t>
+  </si>
+  <si>
+    <t>Click Cancel button on Checkout Customer Information screen</t>
+  </si>
+  <si>
+    <t>1. Click Cancel button on Checkout Customer Information screen</t>
+  </si>
+  <si>
+    <t>User redirected to Shopping cart.</t>
+  </si>
+  <si>
+    <t>SW022, SW024, SW025, SW026</t>
+  </si>
+  <si>
+    <t>Checkout Order Overview</t>
+  </si>
+  <si>
+    <t>Verify Order Overview page versus the requirements</t>
+  </si>
+  <si>
+    <t>All required information is displayed in the Order Overview page.</t>
+  </si>
+  <si>
+    <t>SW032</t>
+  </si>
+  <si>
+    <t>1. On Order Overview page check if the following is displayed:
+-&gt; qty, name, description, price for all selected products;
+-&gt; payment information;
+-&gt; sipping information;
+-&gt; price information: item total price, tax, total price;
+-&gt; Cancel button;
+-&gt; finish button;</t>
+  </si>
+  <si>
+    <t>Click on Finish button from the Order Overivew page.</t>
+  </si>
+  <si>
+    <t>Complete the checkout process by clicking on the Finish button.</t>
+  </si>
+  <si>
+    <t>1. Click on the Finish button.</t>
+  </si>
+  <si>
+    <t>User is redirected to Order Confirmation page.</t>
+  </si>
+  <si>
+    <t>Click on Cancel button from the Order Overivew page.</t>
+  </si>
+  <si>
+    <t>Terminate the checkout process by clicking on the Cancel button.</t>
+  </si>
+  <si>
+    <t>1. Click on the Cancel button.</t>
+  </si>
+  <si>
+    <t>User is redirected to the Products page.</t>
+  </si>
+  <si>
+    <t>Order Confirmation</t>
+  </si>
+  <si>
+    <t>Check if there is a clear and descriptive confirmation message that the Order is received.</t>
+  </si>
+  <si>
+    <t>On the Order Confirmation page check if there is a clear and descriptive confirmation message that the Order is received.</t>
+  </si>
+  <si>
+    <t>1. Inspect the Order Confirmation page and check if there is a clear and descriptive confirmation message that the Order is received.</t>
+  </si>
+  <si>
+    <t>A clear and descriptive confirmation message that the Order is received is displayed on the page.</t>
+  </si>
+  <si>
+    <t>"Thank you for your order!
+Your order has been dispatched, and will arrive just as fast as the pony can get there! " messages are displayed on the page.</t>
+  </si>
+  <si>
+    <t>Clicking on Back Home button should redirect the user to products page.</t>
+  </si>
+  <si>
+    <t>On the Order Confirmation page click on Back Home button and check if the user is redirected to Products page.</t>
+  </si>
+  <si>
+    <t>1. Click on Back Home button.</t>
+  </si>
+  <si>
+    <t>User is redirected to Products Page</t>
+  </si>
+  <si>
+    <t>SW033</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>Check the Log out functionality.</t>
+  </si>
+  <si>
+    <t>Check the Log out functionality</t>
+  </si>
+  <si>
+    <t>1. Click on the Sandwich menu icon.
+2. Click on Log out.</t>
+  </si>
+  <si>
+    <t>User logged out and redirected to Log in page.</t>
+  </si>
+  <si>
+    <t>SW034</t>
+  </si>
+  <si>
+    <t>E2E Test Case</t>
+  </si>
+  <si>
+    <t>Purchase the cheapest product from Products page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in with valid credentials.
+2. On the Products page filter all products by price low to high.
+3. Add the cheapest product to the shopping cart.
+4. Navigate to the shopping cart and click Checkout.
+5. Enter valid data in all required fields on Contact Information page.
+6. Click on Continue button.
+7. On Order Ooverivew page click Finish.
+</t>
+  </si>
+  <si>
+    <t>Product purchased successfully</t>
+  </si>
+  <si>
+    <t>SW035</t>
+  </si>
+  <si>
+    <t>SW036</t>
+  </si>
+  <si>
+    <t>Purchase the second most expensive product from Product details page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in with valid credentials.
+2. On the Products page filter all products by price high to low.
+3. Identify the second most expensive product and click on its name.
+4. On product details page click Add to cart button.
+5. Navigate to the shopping cart and click Checkout.
+6. Enter valid data in all required fields on Contact Information page.
+7. Click on Continue button.
+8. On Order Ooverivew page click Finish.
+</t>
+  </si>
+  <si>
+    <t>Add 4 products to the shopping cart, purchase only 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in with valid credentials.
+2. On the Products page add 4 products to the shopping cart.
+3. Click on any of these products name and enter the Product details page.
+4. Click on Remove button on Product Details page.
+5. Navigate to the shopping cart.
+6. In the shopping cart delete one more product by pressing the Remove button.
+7. Click on Checkout.
+8. Complete the checkout process by entering valid data in the required fields and pressing Continue and Finish buttons in User Information and Order Overview pages.
+</t>
+  </si>
+  <si>
+    <t>Two products purchased successfully.</t>
+  </si>
+  <si>
+    <t>SW037</t>
+  </si>
+  <si>
+    <t>Add one product to cart then return from Checkout Information page to add one more</t>
+  </si>
+  <si>
+    <t>Add one product to cart then return from Checkout Overview page to add one more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in with valid credentials.
+2. On the Products page add 1 product to the shopping cart.
+3. Navigate to the shopping cart and click Checkout button.
+4. Enter valid data in the required fields from Checkout Information page and press Continue.
+5. On Order Overview page press Cancel button.
+6. Add one more product from the Products Page.
+7. Repeat steps 3 and 4.
+8. On Order Overview page click Finish.
+</t>
+  </si>
+  <si>
+    <t>Products purchased successfully</t>
   </si>
 </sst>
 </file>
@@ -860,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2000CD33-61D4-4DF7-A171-BA08DDF392FC}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1504,109 +1774,466 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
       <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
       <c r="B24" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
       <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
       <c r="B29" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
       <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="C31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
@@ -1767,11 +2394,14 @@
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I102" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I101" xr:uid="{6F73A691-8541-4749-9BB3-FEB9327913D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I102" xr:uid="{6F73A691-8541-4749-9BB3-FEB9327913D1}">
       <formula1>"Pass, Fail, N/A, Blockd"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1784,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B510231E-BF2B-4144-A3DB-453E099D7522}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1894,45 +2524,72 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/SwagLabs_TestCases_Template.xlsx
+++ b/SwagLabs_TestCases_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTsonkova\MyFiles\Projects\SwagLabs-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A7D6C5-FAF6-4D65-93E8-8F01E77E1927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4B5A6-E75A-429D-AD93-89BA023DC5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="225">
   <si>
     <t>Test Steps</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>UC020</t>
-  </si>
-  <si>
-    <t>SW001, SW004, SW005</t>
   </si>
   <si>
     <t>SW010</t>
@@ -360,9 +357,6 @@
     <t>Products filtered by name reversed alphabetically.</t>
   </si>
   <si>
-    <t>SW007, SW008, SW009, SW010</t>
-  </si>
-  <si>
     <t>Badge icon over the shopping cart when product is added in previously empty cart.</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
   </si>
   <si>
     <t>The badge counter decreases by 1 for each removed product and disappears when there are no more products in the cart.</t>
-  </si>
-  <si>
-    <t>SW012, SW015, SW016</t>
   </si>
   <si>
     <t>SW013, SW014, SW017, SW018</t>
@@ -754,30 +745,66 @@
 </t>
   </si>
   <si>
-    <t>Add 4 products to the shopping cart, purchase only 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Log in with valid credentials.
-2. On the Products page add 4 products to the shopping cart.
-3. Click on any of these products name and enter the Product details page.
-4. Click on Remove button on Product Details page.
-5. Navigate to the shopping cart.
-6. In the shopping cart delete one more product by pressing the Remove button.
-7. Click on Checkout.
-8. Complete the checkout process by entering valid data in the required fields and pressing Continue and Finish buttons in User Information and Order Overview pages.
-</t>
-  </si>
-  <si>
-    <t>Two products purchased successfully.</t>
-  </si>
-  <si>
-    <t>SW037</t>
-  </si>
-  <si>
     <t>Add one product to cart then return from Checkout Information page to add one more</t>
   </si>
   <si>
     <t>Add one product to cart then return from Checkout Overview page to add one more</t>
+  </si>
+  <si>
+    <t>Products purchased successfully</t>
+  </si>
+  <si>
+    <t>UC001,
+UC005,
+UC009,
+UC013,
+UC017,
+UC016,
+UC018</t>
+  </si>
+  <si>
+    <t>UC001,
+UC005,
+UC009,
+UC013,
+UC016,
+UC018</t>
+  </si>
+  <si>
+    <t>UC001,
+UC005,
+UC007,
+UC009,
+UC013,
+UC016,
+UC018</t>
+  </si>
+  <si>
+    <t>SW012, SW015, SW016, SW035</t>
+  </si>
+  <si>
+    <t>SW001, SW004, SW005, SW034, SW035, SW036</t>
+  </si>
+  <si>
+    <t>SW007, SW008, SW009, SW010, SW034, SW035, SW036</t>
+  </si>
+  <si>
+    <t>SW019, SW034, SW035, SW036</t>
+  </si>
+  <si>
+    <t>SW023, SW034, SW035, SW036</t>
+  </si>
+  <si>
+    <t>SW030, SW036</t>
+  </si>
+  <si>
+    <t>SW029, SW034, SW035, SW036</t>
+  </si>
+  <si>
+    <t>SW031, SW034, SW035, SW036</t>
+  </si>
+  <si>
+    <t>Automate</t>
   </si>
   <si>
     <t xml:space="preserve">1. Log in with valid credentials.
@@ -788,10 +815,11 @@
 6. Add one more product from the Products Page.
 7. Repeat steps 3 and 4.
 8. On Order Overview page click Finish.
+9. Log out of the application.
 </t>
   </si>
   <si>
-    <t>Products purchased successfully</t>
+    <t>SW033, SW036</t>
   </si>
 </sst>
 </file>
@@ -813,15 +841,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -829,15 +863,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2000CD33-61D4-4DF7-A171-BA08DDF392FC}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1156,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1205,6 +1256,9 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1231,6 +1285,9 @@
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1318,22 +1375,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1347,22 +1404,22 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1376,22 +1433,22 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1405,22 +1462,22 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>11</v>
@@ -1431,25 +1488,25 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1460,25 +1517,25 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -1489,25 +1546,25 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>11</v>
@@ -1518,25 +1575,25 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>11</v>
@@ -1547,25 +1604,25 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>11</v>
@@ -1576,25 +1633,25 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>11</v>
@@ -1605,25 +1662,25 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>11</v>
@@ -1634,25 +1691,25 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>11</v>
@@ -1663,25 +1720,25 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>11</v>
@@ -1692,25 +1749,25 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>11</v>
@@ -1721,25 +1778,25 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>11</v>
@@ -1750,25 +1807,25 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>11</v>
@@ -1779,25 +1836,25 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>11</v>
@@ -1808,25 +1865,25 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>11</v>
@@ -1837,25 +1894,25 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>11</v>
@@ -1866,25 +1923,25 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>11</v>
@@ -1895,25 +1952,25 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>11</v>
@@ -1924,25 +1981,25 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>11</v>
@@ -1953,25 +2010,25 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>11</v>
@@ -1982,25 +2039,25 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>11</v>
@@ -2011,25 +2068,25 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>11</v>
@@ -2040,200 +2097,200 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="I32" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>60</v>
       </c>
       <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s">
         <v>199</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="174" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+      <c r="F35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="232" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="203" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="232" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="J37" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
@@ -2394,14 +2451,11 @@
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I102" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I102" xr:uid="{6F73A691-8541-4749-9BB3-FEB9327913D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I101" xr:uid="{6F73A691-8541-4749-9BB3-FEB9327913D1}">
       <formula1>"Pass, Fail, N/A, Blockd"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2414,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B510231E-BF2B-4144-A3DB-453E099D7522}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2425,171 +2479,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
+      <c r="B2" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>100</v>
+      <c r="B6" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>63</v>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
-        <v>134</v>
+      <c r="B8" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
-        <v>135</v>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
-        <v>71</v>
+      <c r="B10" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
-        <v>172</v>
+      <c r="B13" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>79</v>
+      <c r="B14" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
-        <v>83</v>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>109</v>
+      <c r="B16" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>110</v>
+      <c r="B17" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>111</v>
+      <c r="B18" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
-        <v>159</v>
+      <c r="B19" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>176</v>
+      <c r="B20" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
-        <v>196</v>
+      <c r="B21" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/SwagLabs_TestCases_Template.xlsx
+++ b/SwagLabs_TestCases_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTsonkova\MyFiles\Projects\SwagLabs-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4B5A6-E75A-429D-AD93-89BA023DC5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F7ED37-D9B6-4F3A-A041-6B7F7B7EAC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Warning message "Epic sadface: Sorry, this user has been locked out." appears.</t>
   </si>
   <si>
-    <t>Log in with invalid credentials that are restricted.</t>
-  </si>
-  <si>
     <t>Login with username and password that are not registered in the database.</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Badge icon over the shopping cart when removing a product.</t>
   </si>
   <si>
-    <t>Badge icon over the shopping cart when removig all products and the cart is empty.</t>
-  </si>
-  <si>
     <t>Add product to the Shopping Cart from products page.</t>
   </si>
   <si>
@@ -581,12 +575,6 @@
 4. Press Continue button.</t>
   </si>
   <si>
-    <t>1. Enter valid data in First Name field.
-2. Enter valid data in Last Name field.
-3. Leave Zip/Postal Code field empty.
-4. PressContinue button.</t>
-  </si>
-  <si>
     <t>1.Enter vaid data in First Name field.
 2. Enter valid data in Last Name field.
 3. Enter valid data in the Zip/Postal Code field.
@@ -682,9 +670,6 @@
   </si>
   <si>
     <t>User is redirected to Products Page</t>
-  </si>
-  <si>
-    <t>SW033</t>
   </si>
   <si>
     <t>User logged in</t>
@@ -820,6 +805,21 @@
   </si>
   <si>
     <t>SW033, SW036</t>
+  </si>
+  <si>
+    <t>Log in with invalid credentials.</t>
+  </si>
+  <si>
+    <t>Badge icon over the shopping cart when removing all products and the cart is empty.</t>
+  </si>
+  <si>
+    <t>1. Enter valid data in First Name field.
+2. Enter valid data in Last Name field.
+3. Leave Zip/Postal Code field empty.
+4. Press Continue button.</t>
+  </si>
+  <si>
+    <t>SW033B34:B37</t>
   </si>
 </sst>
 </file>
@@ -882,13 +882,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2000CD33-61D4-4DF7-A171-BA08DDF392FC}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1201,13 +1202,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1233,9 +1234,9 @@
     </row>
     <row r="2" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1257,14 +1258,14 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1286,30 +1287,30 @@
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -1317,25 +1318,25 @@
     </row>
     <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>11</v>
@@ -1343,25 +1344,25 @@
     </row>
     <row r="6" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -1369,28 +1370,28 @@
     </row>
     <row r="7" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1398,28 +1399,28 @@
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1427,28 +1428,28 @@
     </row>
     <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1456,28 +1457,28 @@
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>11</v>
@@ -1485,28 +1486,28 @@
     </row>
     <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1514,28 +1515,28 @@
     </row>
     <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -1543,28 +1544,28 @@
     </row>
     <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>11</v>
@@ -1572,28 +1573,28 @@
     </row>
     <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>11</v>
@@ -1601,28 +1602,28 @@
     </row>
     <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>11</v>
@@ -1630,28 +1631,28 @@
     </row>
     <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>11</v>
@@ -1659,28 +1660,28 @@
     </row>
     <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>11</v>
@@ -1688,28 +1689,28 @@
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>11</v>
@@ -1717,28 +1718,28 @@
     </row>
     <row r="19" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>11</v>
@@ -1746,28 +1747,28 @@
     </row>
     <row r="20" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>11</v>
@@ -1775,28 +1776,28 @@
     </row>
     <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>11</v>
@@ -1804,28 +1805,28 @@
     </row>
     <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>11</v>
@@ -1833,28 +1834,28 @@
     </row>
     <row r="23" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>11</v>
@@ -1862,28 +1863,28 @@
     </row>
     <row r="24" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>11</v>
@@ -1891,28 +1892,28 @@
     </row>
     <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>11</v>
@@ -1920,28 +1921,28 @@
     </row>
     <row r="26" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>80</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>11</v>
@@ -1949,28 +1950,28 @@
     </row>
     <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>11</v>
@@ -1978,28 +1979,28 @@
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>11</v>
@@ -2007,28 +2008,28 @@
     </row>
     <row r="29" spans="1:9" ht="145" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
+        <v>54</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>11</v>
@@ -2036,28 +2037,28 @@
     </row>
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>108</v>
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>11</v>
@@ -2065,28 +2066,28 @@
     </row>
     <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>11</v>
@@ -2094,28 +2095,28 @@
     </row>
     <row r="32" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>156</v>
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>11</v>
@@ -2123,28 +2124,28 @@
     </row>
     <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>173</v>
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>11</v>
@@ -2152,28 +2153,28 @@
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>11</v>
@@ -2181,83 +2182,83 @@
     </row>
     <row r="35" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="232" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2466,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B510231E-BF2B-4144-A3DB-453E099D7522}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2480,23 +2481,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -2504,7 +2505,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -2512,7 +2513,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -2520,131 +2521,134 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SwagLabs_TestCases_Template.xlsx
+++ b/SwagLabs_TestCases_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTsonkova\MyFiles\Projects\SwagLabs-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F7ED37-D9B6-4F3A-A041-6B7F7B7EAC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B1BB33-88CD-4CD7-B3C0-D152BCF8A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="225">
   <si>
     <t>Test Steps</t>
   </si>
@@ -882,14 +882,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2000CD33-61D4-4DF7-A171-BA08DDF392FC}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1235,7 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1265,7 +1264,7 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1294,7 +1293,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1314,13 +1313,16 @@
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1346,7 +1348,7 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1372,7 +1374,7 @@
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1401,7 +1403,7 @@
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1430,7 +1432,7 @@
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1459,7 +1461,7 @@
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1488,7 +1490,7 @@
       <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1517,7 +1519,7 @@
       <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1546,7 +1548,7 @@
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1575,7 +1577,7 @@
       <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1604,7 +1606,7 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1633,7 +1635,7 @@
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1662,7 +1664,7 @@
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1691,7 +1693,7 @@
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1720,7 +1722,7 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1749,7 +1751,7 @@
       <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1778,7 +1780,7 @@
       <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1807,7 +1809,7 @@
       <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1836,7 +1838,7 @@
       <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1865,7 +1867,7 @@
       <c r="A24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1894,7 +1896,7 @@
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1923,7 +1925,7 @@
       <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1952,7 +1954,7 @@
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1981,7 +1983,7 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2010,7 +2012,7 @@
       <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2039,7 +2041,7 @@
       <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2068,7 +2070,7 @@
       <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2097,7 +2099,7 @@
       <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2126,7 +2128,7 @@
       <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>170</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2155,7 +2157,7 @@
       <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>224</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2184,7 +2186,7 @@
       <c r="A35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>195</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2211,7 +2213,7 @@
       <c r="A36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>200</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2238,7 +2240,7 @@
       <c r="A37" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>201</v>
       </c>
       <c r="C37" s="1" t="s">

--- a/SwagLabs_TestCases_Template.xlsx
+++ b/SwagLabs_TestCases_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTsonkova\MyFiles\Projects\SwagLabs-Testing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B1BB33-88CD-4CD7-B3C0-D152BCF8A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3C7D2-FDB8-437E-A915-75469FF6C30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="225">
   <si>
     <t>Test Steps</t>
   </si>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2000CD33-61D4-4DF7-A171-BA08DDF392FC}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2204,7 +2204,9 @@
       <c r="G35" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J35" s="1" t="s">
         <v>218</v>
       </c>
@@ -2231,10 +2233,10 @@
       <c r="G36" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="232" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
@@ -2258,7 +2260,9 @@
       <c r="G37" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J37" s="1" t="s">
         <v>218</v>
       </c>
